--- a/Planning/planning_2018/RaisedBeds_2018.xlsx
+++ b/Planning/planning_2018/RaisedBeds_2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="26500" yWindow="0" windowWidth="15520" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>Species</t>
   </si>
@@ -85,6 +85,39 @@
   </si>
   <si>
     <t>FAGGRA</t>
+  </si>
+  <si>
+    <t>NextSteps</t>
+  </si>
+  <si>
+    <t>To plant</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>replacement</t>
+  </si>
+  <si>
+    <t>extra/replace</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Really WM? Duplicate or wrong site or species? We could use 4 from HF to replace dead ones.</t>
+  </si>
+  <si>
+    <t>Also need 3 GR if we had them…</t>
+  </si>
+  <si>
+    <t>Need WM!</t>
+  </si>
+  <si>
+    <t>Confirm we have no HF for VIBCAS in CG.</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -97,7 +130,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,12 +151,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,21 +174,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,15 +535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +553,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -510,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -520,8 +587,14 @@
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -531,8 +604,14 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -542,8 +621,14 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -553,8 +638,14 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -564,19 +655,28 @@
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -586,8 +686,14 @@
       <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -597,8 +703,14 @@
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -608,8 +720,14 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -619,8 +737,14 @@
       <c r="C12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -630,8 +754,14 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -641,8 +771,14 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -653,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -663,8 +799,14 @@
       <c r="C16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -674,8 +816,14 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -686,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -697,7 +845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -707,8 +855,14 @@
       <c r="C20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -718,8 +872,14 @@
       <c r="C21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -729,8 +889,14 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -741,7 +907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -751,8 +917,14 @@
       <c r="C24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -762,8 +934,17 @@
       <c r="C25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -773,8 +954,11 @@
       <c r="C26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -784,8 +968,14 @@
       <c r="C27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -795,8 +985,14 @@
       <c r="C28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -806,8 +1002,14 @@
       <c r="C29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -816,6 +1018,15 @@
       </c>
       <c r="C30">
         <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="E31">
+        <f>SUM(E2:E30)</f>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
